--- a/test 1.xlsx
+++ b/test 1.xlsx
@@ -13,6 +13,35 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>batmanh</t>
+  </si>
+  <si>
+    <t>jesus</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>buzz</t>
+  </si>
+  <si>
+    <t>delete me</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,12 +378,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>10101</v>
+      </c>
+      <c r="J9">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/test 1.xlsx
+++ b/test 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>error</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>delete me</t>
+  </si>
+  <si>
+    <t>this is a change for the</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P24"/>
+  <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,24 +430,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
